--- a/test_files/dane_testowe_orange.xlsx
+++ b/test_files/dane_testowe_orange.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GIT FILES\orange-scheduler\test_files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14EAF58C-F672-4BE6-9228-F9C19F3AFD77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-38520" yWindow="-3375" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Arkusz1" sheetId="1" r:id="rId4"/>
+    <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="32">
   <si>
     <t>monday 01.04</t>
   </si>
@@ -98,36 +107,48 @@
   </si>
   <si>
     <t>name.surname21</t>
+  </si>
+  <si>
+    <t>qualifications</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>group id</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="hh:mm"/>
-    <numFmt numFmtId="165" formatCode="mm.dd"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="mm\.dd"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -143,7 +164,13 @@
     </fill>
   </fills>
   <borders count="4">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -157,19 +184,23 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -179,48 +210,42 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -410,552 +435,625 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:T23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="14.0"/>
+    <col min="1" max="1" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1"/>
+      <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="5" t="s">
+      <c r="E1" s="3"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="7" t="s">
+      <c r="H1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="5">
-        <v>6.0</v>
-      </c>
+      <c r="F2" s="4"/>
       <c r="G2" s="5">
-        <v>7.0</v>
+        <v>6</v>
       </c>
       <c r="H2" s="5">
-        <v>8.0</v>
+        <v>7</v>
       </c>
       <c r="I2" s="5">
-        <v>9.0</v>
+        <v>8</v>
       </c>
       <c r="J2" s="5">
-        <v>10.0</v>
+        <v>9</v>
       </c>
       <c r="K2" s="5">
-        <v>11.0</v>
+        <v>10</v>
       </c>
       <c r="L2" s="5">
-        <v>12.0</v>
+        <v>11</v>
       </c>
       <c r="M2" s="5">
-        <v>13.0</v>
+        <v>12</v>
       </c>
       <c r="N2" s="5">
-        <v>14.0</v>
+        <v>13</v>
       </c>
       <c r="O2" s="5">
-        <v>15.0</v>
+        <v>14</v>
       </c>
       <c r="P2" s="5">
-        <v>16.0</v>
+        <v>15</v>
       </c>
       <c r="Q2" s="5">
-        <v>17.0</v>
+        <v>16</v>
       </c>
       <c r="R2" s="5">
-        <v>18.0</v>
+        <v>17</v>
       </c>
       <c r="S2" s="5">
-        <v>19.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="T2" s="5">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="D3" s="8">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="E3" s="9">
-        <v>45661.0</v>
-      </c>
-      <c r="F3" s="5">
-        <v>-1.0</v>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E3" s="6">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F3" s="7">
+        <v>45661</v>
       </c>
       <c r="G3" s="5">
-        <v>-2.0</v>
+        <v>-1</v>
       </c>
       <c r="H3" s="5">
-        <v>-3.0</v>
+        <v>-2</v>
       </c>
       <c r="I3" s="5">
-        <v>-4.0</v>
+        <v>-3</v>
       </c>
       <c r="J3" s="5">
-        <v>-4.0</v>
+        <v>-4</v>
       </c>
       <c r="K3" s="5">
-        <v>-4.0</v>
+        <v>-4</v>
       </c>
       <c r="L3" s="5">
-        <v>-4.0</v>
+        <v>-4</v>
       </c>
       <c r="M3" s="5">
-        <v>-4.0</v>
+        <v>-4</v>
       </c>
       <c r="N3" s="5">
-        <v>-4.0</v>
+        <v>-4</v>
       </c>
       <c r="O3" s="5">
-        <v>-4.0</v>
+        <v>-4</v>
       </c>
       <c r="P3" s="5">
-        <v>-4.0</v>
+        <v>-4</v>
       </c>
       <c r="Q3" s="5">
-        <v>-3.0</v>
+        <v>-4</v>
       </c>
       <c r="R3" s="5">
-        <v>-2.0</v>
+        <v>-3</v>
       </c>
       <c r="S3" s="5">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="7" t="s">
+        <v>-2</v>
+      </c>
+      <c r="T3" s="5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="8">
-        <v>0.25</v>
-      </c>
-      <c r="D4" s="8">
-        <v>0.8333333333333334</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="5" t="s">
+      <c r="C4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="H4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="7" t="s">
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="C5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="8">
-        <v>0.25</v>
-      </c>
-      <c r="D5" s="8">
-        <v>0.8333333333333334</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="5">
-        <v>6.0</v>
-      </c>
+      <c r="D5" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="F5" s="4"/>
       <c r="G5" s="5">
-        <v>7.0</v>
+        <v>6</v>
       </c>
       <c r="H5" s="5">
-        <v>8.0</v>
+        <v>7</v>
       </c>
       <c r="I5" s="5">
-        <v>9.0</v>
+        <v>8</v>
       </c>
       <c r="J5" s="5">
-        <v>10.0</v>
+        <v>9</v>
       </c>
       <c r="K5" s="5">
-        <v>11.0</v>
+        <v>10</v>
       </c>
       <c r="L5" s="5">
-        <v>12.0</v>
+        <v>11</v>
       </c>
       <c r="M5" s="5">
-        <v>13.0</v>
+        <v>12</v>
       </c>
       <c r="N5" s="5">
-        <v>14.0</v>
+        <v>13</v>
       </c>
       <c r="O5" s="5">
-        <v>15.0</v>
+        <v>14</v>
       </c>
       <c r="P5" s="5">
-        <v>16.0</v>
+        <v>15</v>
       </c>
       <c r="Q5" s="5">
-        <v>17.0</v>
+        <v>16</v>
       </c>
       <c r="R5" s="5">
-        <v>18.0</v>
+        <v>17</v>
       </c>
       <c r="S5" s="5">
-        <v>19.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="T5" s="5">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="8">
-        <v>0.2916666666666667</v>
-      </c>
-      <c r="D6" s="8">
-        <v>0.5416666666666666</v>
-      </c>
-      <c r="E6" s="9">
-        <v>45661.0</v>
-      </c>
-      <c r="F6" s="5">
-        <v>-1.0</v>
+      <c r="D6" s="6">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="E6" s="6">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F6" s="7">
+        <v>45661</v>
       </c>
       <c r="G6" s="5">
-        <v>-1.0</v>
+        <v>-1</v>
       </c>
       <c r="H6" s="5">
-        <v>-1.0</v>
+        <v>-1</v>
       </c>
       <c r="I6" s="5">
-        <v>-1.0</v>
+        <v>-1</v>
       </c>
       <c r="J6" s="5">
-        <v>-1.0</v>
+        <v>-1</v>
       </c>
       <c r="K6" s="5">
-        <v>-2.0</v>
+        <v>-1</v>
       </c>
       <c r="L6" s="5">
-        <v>-2.0</v>
+        <v>-2</v>
       </c>
       <c r="M6" s="5">
-        <v>-2.0</v>
+        <v>-2</v>
       </c>
       <c r="N6" s="5">
-        <v>-2.0</v>
+        <v>-2</v>
       </c>
       <c r="O6" s="5">
-        <v>-2.0</v>
+        <v>-2</v>
       </c>
       <c r="P6" s="5">
-        <v>-2.0</v>
+        <v>-2</v>
       </c>
       <c r="Q6" s="5">
-        <v>-2.0</v>
+        <v>-2</v>
       </c>
       <c r="R6" s="5">
-        <v>-2.0</v>
+        <v>-2</v>
       </c>
       <c r="S6" s="5">
-        <v>-2.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="7" t="s">
+        <v>-2</v>
+      </c>
+      <c r="T6" s="5">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="8">
-        <v>0.4166666666666667</v>
-      </c>
-      <c r="D7" s="8">
+      <c r="C7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E7" s="6">
         <v>0.5</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="7" t="s">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="C8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="D8" s="8">
-        <v>0.6666666666666666</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="7" t="s">
+      <c r="D8" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>2</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="C9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="8">
-        <v>0.25</v>
-      </c>
-      <c r="D9" s="8">
-        <v>0.8333333333333334</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="7" t="s">
+      <c r="D9" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="E9" s="6">
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>2</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="8">
-        <v>0.25</v>
-      </c>
-      <c r="D10" s="8">
-        <v>0.8333333333333334</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="7" t="s">
+      <c r="C10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="E10" s="6">
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>2</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="C11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="8">
-        <v>0.25</v>
-      </c>
-      <c r="D11" s="8">
-        <v>0.8333333333333334</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="7" t="s">
+      <c r="D11" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="E11" s="6">
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>1</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" s="8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="D12" s="8">
-        <v>0.6666666666666666</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="7" t="s">
+      <c r="C12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E12" s="6">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>2</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" s="8">
-        <v>0.25</v>
-      </c>
-      <c r="D13" s="8">
-        <v>0.8333333333333334</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="7" t="s">
+      <c r="C13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="E13" s="6">
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>4</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="8">
-        <v>0.25</v>
-      </c>
-      <c r="D14" s="8">
-        <v>0.8333333333333334</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="7" t="s">
+      <c r="D14" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="E14" s="6">
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>3</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="C15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="8">
-        <v>0.25</v>
-      </c>
-      <c r="D15" s="8">
-        <v>0.8333333333333334</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="7" t="s">
+      <c r="D15" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="E15" s="6">
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>2</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C16" s="8">
-        <v>0.4166666666666667</v>
-      </c>
-      <c r="D16" s="8">
+      <c r="C16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E16" s="6">
         <v>0.5</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="7" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>4</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="C17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="8">
-        <v>0.25</v>
-      </c>
-      <c r="D17" s="8">
-        <v>0.8333333333333334</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="7" t="s">
+      <c r="D17" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="E17" s="6">
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>1</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="C18" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="8">
-        <v>0.25</v>
-      </c>
-      <c r="D18" s="8">
-        <v>0.8333333333333334</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="7" t="s">
+      <c r="D18" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="E18" s="6">
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>3</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C19" s="8">
-        <v>0.25</v>
-      </c>
-      <c r="D19" s="8">
-        <v>0.8333333333333334</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="7" t="s">
+      <c r="C19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="E19" s="6">
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>4</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="C20" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="8">
-        <v>0.25</v>
-      </c>
-      <c r="D20" s="8">
-        <v>0.8333333333333334</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="7" t="s">
+      <c r="D20" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="E20" s="6">
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>3</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C21" s="8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="D21" s="8">
-        <v>0.6666666666666666</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="7" t="s">
+      <c r="C21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E21" s="6">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>4</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C22" s="8">
-        <v>0.25</v>
-      </c>
-      <c r="D22" s="8">
-        <v>0.8333333333333334</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="7" t="s">
+      <c r="C22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="E22" s="6">
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>3</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="C23" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="8">
-        <v>0.25</v>
-      </c>
-      <c r="D23" s="8">
-        <v>0.8333333333333334</v>
+      <c r="D23" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="E23" s="6">
+        <v>0.83333333333333337</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C1:D1"/>
-  </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/test_files/dane_testowe_orange.xlsx
+++ b/test_files/dane_testowe_orange.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GIT FILES\orange-scheduler\test_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tajbe\Desktop\vs2022\java projekty\orange-scheduler\test_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14EAF58C-F672-4BE6-9228-F9C19F3AFD77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20EE29A0-F586-43F8-9027-F1FF50680F2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-3375" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -125,7 +125,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm\.dd"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -137,10 +137,6 @@
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="4">
@@ -163,7 +159,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -199,31 +195,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -463,26 +444,26 @@
       <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="5" t="s">
+      <c r="E1" s="1"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
+      <c r="H1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -500,47 +481,47 @@
       <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="5">
+      <c r="F2" s="3"/>
+      <c r="G2" s="3">
         <v>6</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="3">
         <v>7</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="3">
         <v>8</v>
       </c>
-      <c r="J2" s="5">
+      <c r="J2" s="3">
         <v>9</v>
       </c>
-      <c r="K2" s="5">
+      <c r="K2" s="3">
         <v>10</v>
       </c>
-      <c r="L2" s="5">
+      <c r="L2" s="3">
         <v>11</v>
       </c>
-      <c r="M2" s="5">
+      <c r="M2" s="3">
         <v>12</v>
       </c>
-      <c r="N2" s="5">
+      <c r="N2" s="3">
         <v>13</v>
       </c>
-      <c r="O2" s="5">
+      <c r="O2" s="3">
         <v>14</v>
       </c>
-      <c r="P2" s="5">
+      <c r="P2" s="3">
         <v>15</v>
       </c>
-      <c r="Q2" s="5">
+      <c r="Q2" s="3">
         <v>16</v>
       </c>
-      <c r="R2" s="5">
+      <c r="R2" s="3">
         <v>17</v>
       </c>
-      <c r="S2" s="5">
+      <c r="S2" s="3">
         <v>18</v>
       </c>
-      <c r="T2" s="5">
+      <c r="T2" s="3">
         <v>19</v>
       </c>
     </row>
@@ -554,55 +535,55 @@
       <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="4">
         <v>0.33333333333333331</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="4">
         <v>0.66666666666666663</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="5">
         <v>45661</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="3">
         <v>-1</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="3">
         <v>-2</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="3">
         <v>-3</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="3">
         <v>-4</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K3" s="3">
         <v>-4</v>
       </c>
-      <c r="L3" s="5">
+      <c r="L3" s="3">
         <v>-4</v>
       </c>
-      <c r="M3" s="5">
+      <c r="M3" s="3">
         <v>-4</v>
       </c>
-      <c r="N3" s="5">
+      <c r="N3" s="3">
         <v>-4</v>
       </c>
-      <c r="O3" s="5">
+      <c r="O3" s="3">
         <v>-4</v>
       </c>
-      <c r="P3" s="5">
+      <c r="P3" s="3">
         <v>-4</v>
       </c>
-      <c r="Q3" s="5">
+      <c r="Q3" s="3">
         <v>-4</v>
       </c>
-      <c r="R3" s="5">
+      <c r="R3" s="3">
         <v>-3</v>
       </c>
-      <c r="S3" s="5">
+      <c r="S3" s="3">
         <v>-2</v>
       </c>
-      <c r="T3" s="5">
+      <c r="T3" s="3">
         <v>-1</v>
       </c>
     </row>
@@ -616,31 +597,31 @@
       <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="E4" s="6">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="5" t="s">
+      <c r="D4" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
@@ -652,53 +633,53 @@
       <c r="C5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="E5" s="6">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="5">
+      <c r="D5" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3">
         <v>6</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="3">
         <v>7</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="3">
         <v>8</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="3">
         <v>9</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="3">
         <v>10</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L5" s="3">
         <v>11</v>
       </c>
-      <c r="M5" s="5">
+      <c r="M5" s="3">
         <v>12</v>
       </c>
-      <c r="N5" s="5">
+      <c r="N5" s="3">
         <v>13</v>
       </c>
-      <c r="O5" s="5">
+      <c r="O5" s="3">
         <v>14</v>
       </c>
-      <c r="P5" s="5">
+      <c r="P5" s="3">
         <v>15</v>
       </c>
-      <c r="Q5" s="5">
+      <c r="Q5" s="3">
         <v>16</v>
       </c>
-      <c r="R5" s="5">
+      <c r="R5" s="3">
         <v>17</v>
       </c>
-      <c r="S5" s="5">
+      <c r="S5" s="3">
         <v>18</v>
       </c>
-      <c r="T5" s="5">
+      <c r="T5" s="3">
         <v>19</v>
       </c>
     </row>
@@ -712,55 +693,55 @@
       <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="4">
         <v>0.29166666666666669</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="4">
         <v>0.54166666666666663</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="5">
         <v>45661</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="3">
         <v>-1</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="3">
         <v>-1</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="3">
         <v>-1</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="3">
         <v>-1</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" s="3">
         <v>-1</v>
       </c>
-      <c r="L6" s="5">
+      <c r="L6" s="3">
         <v>-2</v>
       </c>
-      <c r="M6" s="5">
+      <c r="M6" s="3">
         <v>-2</v>
       </c>
-      <c r="N6" s="5">
+      <c r="N6" s="3">
         <v>-2</v>
       </c>
-      <c r="O6" s="5">
+      <c r="O6" s="3">
         <v>-2</v>
       </c>
-      <c r="P6" s="5">
+      <c r="P6" s="3">
         <v>-2</v>
       </c>
-      <c r="Q6" s="5">
+      <c r="Q6" s="3">
         <v>-2</v>
       </c>
-      <c r="R6" s="5">
+      <c r="R6" s="3">
         <v>-2</v>
       </c>
-      <c r="S6" s="5">
+      <c r="S6" s="3">
         <v>-2</v>
       </c>
-      <c r="T6" s="5">
+      <c r="T6" s="3">
         <v>-2</v>
       </c>
     </row>
@@ -774,10 +755,10 @@
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="4">
         <v>0.41666666666666669</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="4">
         <v>0.5</v>
       </c>
     </row>
@@ -791,10 +772,10 @@
       <c r="C8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="4">
         <v>0.33333333333333331</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="4">
         <v>0.66666666666666663</v>
       </c>
     </row>
@@ -808,10 +789,10 @@
       <c r="C9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="E9" s="6">
+      <c r="D9" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="E9" s="4">
         <v>0.83333333333333337</v>
       </c>
     </row>
@@ -825,10 +806,10 @@
       <c r="C10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="E10" s="6">
+      <c r="D10" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="E10" s="4">
         <v>0.83333333333333337</v>
       </c>
     </row>
@@ -842,10 +823,10 @@
       <c r="C11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="E11" s="6">
+      <c r="D11" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="E11" s="4">
         <v>0.83333333333333337</v>
       </c>
     </row>
@@ -859,10 +840,10 @@
       <c r="C12" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="4">
         <v>0.33333333333333331</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="4">
         <v>0.66666666666666663</v>
       </c>
     </row>
@@ -876,10 +857,10 @@
       <c r="C13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="E13" s="6">
+      <c r="D13" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="E13" s="4">
         <v>0.83333333333333337</v>
       </c>
     </row>
@@ -893,10 +874,10 @@
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="E14" s="6">
+      <c r="D14" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="E14" s="4">
         <v>0.83333333333333337</v>
       </c>
     </row>
@@ -910,10 +891,10 @@
       <c r="C15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="E15" s="6">
+      <c r="D15" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="E15" s="4">
         <v>0.83333333333333337</v>
       </c>
     </row>
@@ -927,10 +908,10 @@
       <c r="C16" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="4">
         <v>0.41666666666666669</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="4">
         <v>0.5</v>
       </c>
     </row>
@@ -944,10 +925,10 @@
       <c r="C17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="E17" s="6">
+      <c r="D17" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="E17" s="4">
         <v>0.83333333333333337</v>
       </c>
     </row>
@@ -961,10 +942,10 @@
       <c r="C18" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="E18" s="6">
+      <c r="D18" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="E18" s="4">
         <v>0.83333333333333337</v>
       </c>
     </row>
@@ -978,10 +959,10 @@
       <c r="C19" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D19" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="E19" s="6">
+      <c r="D19" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="E19" s="4">
         <v>0.83333333333333337</v>
       </c>
     </row>
@@ -995,10 +976,10 @@
       <c r="C20" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="E20" s="6">
+      <c r="D20" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="E20" s="4">
         <v>0.83333333333333337</v>
       </c>
     </row>
@@ -1012,10 +993,10 @@
       <c r="C21" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="4">
         <v>0.33333333333333331</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="4">
         <v>0.66666666666666663</v>
       </c>
     </row>
@@ -1029,10 +1010,10 @@
       <c r="C22" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D22" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="E22" s="6">
+      <c r="D22" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="E22" s="4">
         <v>0.83333333333333337</v>
       </c>
     </row>
@@ -1046,10 +1027,10 @@
       <c r="C23" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D23" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="E23" s="6">
+      <c r="D23" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="E23" s="4">
         <v>0.83333333333333337</v>
       </c>
     </row>
